--- a/DSA_A2Z/bin/com/searching/binarysearch/Binary Search Problems.xlsx
+++ b/DSA_A2Z/bin/com/searching/binarysearch/Binary Search Problems.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2A4B759E-8CA4-4C28-8643-B88B618F7A12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B25F82-5391-47D5-9046-AFBFC242F671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18640" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Sr No.</t>
   </si>
@@ -60,6 +59,21 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>coding Ninja</t>
+  </si>
+  <si>
+    <t>Coding Ninja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Floor and Ceil of X </t>
   </si>
 </sst>
 </file>
@@ -416,17 +430,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G25"/>
+  <dimension ref="C3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="44.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
@@ -519,19 +533,75 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -541,8 +611,10 @@
     <hyperlink ref="D7" r:id="rId3" xr:uid="{AD9FAA49-21D4-4CEC-B3B7-2EA69CFB2E4C}"/>
     <hyperlink ref="D13" r:id="rId4" xr:uid="{D68AD227-E4A0-4A65-98E2-48F70A16799C}"/>
     <hyperlink ref="D16" r:id="rId5" xr:uid="{81429B87-EC8C-4620-9E89-B01520DC74A9}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{434B90C7-F31A-4890-ABD3-DD2E2EF412D2}"/>
+    <hyperlink ref="D22" r:id="rId7" xr:uid="{9AEE3847-1BF9-4FF0-9FF7-441CEB97D732}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/DSA_A2Z/bin/com/searching/binarysearch/Binary Search Problems.xlsx
+++ b/DSA_A2Z/bin/com/searching/binarysearch/Binary Search Problems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B25F82-5391-47D5-9046-AFBFC242F671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A47561-C294-465E-9D88-6DF3B629B412}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Sr No.</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Find the Floor and Ceil of X </t>
+  </si>
+  <si>
+    <t>Frequency Count</t>
   </si>
 </sst>
 </file>
@@ -432,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,10 +571,22 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
@@ -613,8 +628,9 @@
     <hyperlink ref="D16" r:id="rId5" xr:uid="{81429B87-EC8C-4620-9E89-B01520DC74A9}"/>
     <hyperlink ref="D19" r:id="rId6" xr:uid="{434B90C7-F31A-4890-ABD3-DD2E2EF412D2}"/>
     <hyperlink ref="D22" r:id="rId7" xr:uid="{9AEE3847-1BF9-4FF0-9FF7-441CEB97D732}"/>
+    <hyperlink ref="D27" r:id="rId8" xr:uid="{D0867790-578C-4171-9B5D-891CF0E770A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/DSA_A2Z/bin/com/searching/binarysearch/Binary Search Problems.xlsx
+++ b/DSA_A2Z/bin/com/searching/binarysearch/Binary Search Problems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A47561-C294-465E-9D88-6DF3B629B412}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E168E34-C555-44EF-A8A0-54F55BD0AE22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
